--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H2">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I2">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J2">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>0.1998580013127703</v>
+        <v>0.2431669595141111</v>
       </c>
       <c r="R2">
-        <v>0.1998580013127703</v>
+        <v>2.188502635627</v>
       </c>
       <c r="S2">
-        <v>0.05330572720299731</v>
+        <v>0.05786594036196131</v>
       </c>
       <c r="T2">
-        <v>0.05330572720299731</v>
+        <v>0.05786594036196133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H3">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I3">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J3">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>0.03658802938634494</v>
+        <v>0.04566752350844443</v>
       </c>
       <c r="R3">
-        <v>0.03658802938634494</v>
+        <v>0.411007711576</v>
       </c>
       <c r="S3">
-        <v>0.009758686169944854</v>
+        <v>0.01086740648112089</v>
       </c>
       <c r="T3">
-        <v>0.009758686169944854</v>
+        <v>0.01086740648112089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H4">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I4">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J4">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245779115138495</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N4">
-        <v>0.245779115138495</v>
+        <v>0.055439</v>
       </c>
       <c r="O4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q4">
-        <v>0.01085930912197368</v>
+        <v>0.0009879907387777779</v>
       </c>
       <c r="R4">
-        <v>0.01085930912197368</v>
+        <v>0.008891916649000001</v>
       </c>
       <c r="S4">
-        <v>0.002896373254343966</v>
+        <v>0.000235110120562935</v>
       </c>
       <c r="T4">
-        <v>0.002896373254343966</v>
+        <v>0.000235110120562935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.578742533217937</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H5">
-        <v>0.578742533217937</v>
+        <v>0.160391</v>
       </c>
       <c r="I5">
-        <v>0.8640005273152044</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J5">
-        <v>0.8640005273152044</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.52339298607913</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N5">
-        <v>4.52339298607913</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q5">
-        <v>2.617879915503684</v>
+        <v>0.01352525621455556</v>
       </c>
       <c r="R5">
-        <v>2.617879915503684</v>
+        <v>0.121727305931</v>
       </c>
       <c r="S5">
-        <v>0.6982357058982974</v>
+        <v>0.003218577355474565</v>
       </c>
       <c r="T5">
-        <v>0.6982357058982974</v>
+        <v>0.003218577355474566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H6">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I6">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J6">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.828098121734167</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N6">
-        <v>0.828098121734167</v>
+        <v>13.644797</v>
       </c>
       <c r="O6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q6">
-        <v>0.4792556047254474</v>
+        <v>2.680858458397889</v>
       </c>
       <c r="R6">
-        <v>0.4792556047254474</v>
+        <v>24.127726125581</v>
       </c>
       <c r="S6">
-        <v>0.1278260983207873</v>
+        <v>0.6379583640083695</v>
       </c>
       <c r="T6">
-        <v>0.1278260983207873</v>
+        <v>0.6379583640083697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H7">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J7">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.245779115138495</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N7">
-        <v>0.245779115138495</v>
+        <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q7">
-        <v>0.1422428277073156</v>
+        <v>0.5034736911475555</v>
       </c>
       <c r="R7">
-        <v>0.1422428277073156</v>
+        <v>4.531263220327999</v>
       </c>
       <c r="S7">
-        <v>0.03793872309611966</v>
+        <v>0.1198105969823187</v>
       </c>
       <c r="T7">
-        <v>0.03793872309611966</v>
+        <v>0.1198105969823187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0469147475154157</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H8">
-        <v>0.0469147475154157</v>
+        <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.07003868605750947</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J8">
-        <v>0.07003868605750947</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.52339298607913</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N8">
-        <v>4.52339298607913</v>
+        <v>0.055439</v>
       </c>
       <c r="O8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q8">
-        <v>0.2122138398549047</v>
+        <v>0.01089236520522222</v>
       </c>
       <c r="R8">
-        <v>0.2122138398549047</v>
+        <v>0.09803128684700001</v>
       </c>
       <c r="S8">
-        <v>0.05660125179728438</v>
+        <v>0.002592033706493398</v>
       </c>
       <c r="T8">
-        <v>0.05660125179728438</v>
+        <v>0.002592033706493399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0469147475154157</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H9">
-        <v>0.0469147475154157</v>
+        <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.07003868605750947</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J9">
-        <v>0.07003868605750947</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.828098121734167</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N9">
-        <v>0.828098121734167</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q9">
-        <v>0.03885001429914842</v>
+        <v>0.1491127643214445</v>
       </c>
       <c r="R9">
-        <v>0.03885001429914842</v>
+        <v>1.342014878893</v>
       </c>
       <c r="S9">
-        <v>0.01036199827107259</v>
+        <v>0.03548405731055405</v>
       </c>
       <c r="T9">
-        <v>0.01036199827107259</v>
+        <v>0.03548405731055406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.018799</v>
+      </c>
+      <c r="H10">
+        <v>0.056397</v>
+      </c>
+      <c r="I10">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J10">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N10">
+        <v>13.644797</v>
+      </c>
+      <c r="O10">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P10">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q10">
+        <v>0.08550284626766666</v>
+      </c>
+      <c r="R10">
+        <v>0.769525616409</v>
+      </c>
+      <c r="S10">
+        <v>0.02034693616595402</v>
+      </c>
+      <c r="T10">
+        <v>0.02034693616595403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.018799</v>
+      </c>
+      <c r="H11">
+        <v>0.056397</v>
+      </c>
+      <c r="I11">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J11">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N11">
+        <v>2.562536</v>
+      </c>
+      <c r="O11">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P11">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q11">
+        <v>0.01605770475466666</v>
+      </c>
+      <c r="R11">
+        <v>0.144519342792</v>
+      </c>
+      <c r="S11">
+        <v>0.003821218916995185</v>
+      </c>
+      <c r="T11">
+        <v>0.003821218916995186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.018799</v>
+      </c>
+      <c r="H12">
+        <v>0.056397</v>
+      </c>
+      <c r="I12">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J12">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.055439</v>
+      </c>
+      <c r="O12">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P12">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003473992536666667</v>
+      </c>
+      <c r="R12">
+        <v>0.003126593283</v>
+      </c>
+      <c r="S12">
+        <v>8.266988465305311E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.266988465305313E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="H10">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="I10">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="J10">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N10">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O10">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P10">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q10">
-        <v>0.01153066513128478</v>
-      </c>
-      <c r="R10">
-        <v>0.01153066513128478</v>
-      </c>
-      <c r="S10">
-        <v>0.00307543598915249</v>
-      </c>
-      <c r="T10">
-        <v>0.00307543598915249</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.018799</v>
+      </c>
+      <c r="H13">
+        <v>0.056397</v>
+      </c>
+      <c r="I13">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J13">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P13">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q13">
+        <v>0.004755777286333334</v>
+      </c>
+      <c r="R13">
+        <v>0.042801995577</v>
+      </c>
+      <c r="S13">
+        <v>0.001131722522564851</v>
+      </c>
+      <c r="T13">
+        <v>0.001131722522564852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.051364</v>
+      </c>
+      <c r="I14">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J14">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.644797</v>
+      </c>
+      <c r="O14">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P14">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q14">
+        <v>0.07787237256755555</v>
+      </c>
+      <c r="R14">
+        <v>0.7008513531080001</v>
+      </c>
+      <c r="S14">
+        <v>0.01853112806050078</v>
+      </c>
+      <c r="T14">
+        <v>0.01853112806050078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.051364</v>
+      </c>
+      <c r="I15">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J15">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N15">
+        <v>2.562536</v>
+      </c>
+      <c r="O15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P15">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q15">
+        <v>0.01462467767822222</v>
+      </c>
+      <c r="R15">
+        <v>0.131622099104</v>
+      </c>
+      <c r="S15">
+        <v>0.003480204416060086</v>
+      </c>
+      <c r="T15">
+        <v>0.003480204416060087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.051364</v>
+      </c>
+      <c r="I16">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J16">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055439</v>
+      </c>
+      <c r="O16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003163965328888889</v>
+      </c>
+      <c r="R16">
+        <v>0.002847568796</v>
+      </c>
+      <c r="S16">
+        <v>7.52922310640534E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.529223106405343E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.051364</v>
+      </c>
+      <c r="I17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P17">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q17">
+        <v>0.004331360613777778</v>
+      </c>
+      <c r="R17">
+        <v>0.038982245524</v>
+      </c>
+      <c r="S17">
+        <v>0.00103072496141676</v>
+      </c>
+      <c r="T17">
+        <v>0.00103072496141676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.185456</v>
+      </c>
+      <c r="I18">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J18">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.644797</v>
+      </c>
+      <c r="O18">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P18">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q18">
+        <v>0.2811677191591111</v>
+      </c>
+      <c r="R18">
+        <v>2.530509472432</v>
+      </c>
+      <c r="S18">
+        <v>0.06690890284222864</v>
+      </c>
+      <c r="T18">
+        <v>0.06690890284222868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.185456</v>
+      </c>
+      <c r="I19">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J19">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q19">
+        <v>0.05280418626844444</v>
+      </c>
+      <c r="R19">
+        <v>0.475237676416</v>
+      </c>
+      <c r="S19">
+        <v>0.01256570341454792</v>
+      </c>
+      <c r="T19">
+        <v>0.01256570341454792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.185456</v>
+      </c>
+      <c r="I20">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J20">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055439</v>
+      </c>
+      <c r="O20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q20">
+        <v>0.001142388353777778</v>
+      </c>
+      <c r="R20">
+        <v>0.010281495184</v>
+      </c>
+      <c r="S20">
+        <v>0.0002718518029011581</v>
+      </c>
+      <c r="T20">
+        <v>0.0002718518029011583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.185456</v>
+      </c>
+      <c r="I21">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J21">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P21">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q21">
+        <v>0.01563890689955556</v>
+      </c>
+      <c r="R21">
+        <v>0.140750162096</v>
+      </c>
+      <c r="S21">
+        <v>0.003721558454257975</v>
+      </c>
+      <c r="T21">
+        <v>0.003721558454257977</v>
       </c>
     </row>
   </sheetData>
